--- a/test_物件管理/test_契約管理_随時対応（任意保険・自賠責保険更新）.xlsx
+++ b/test_物件管理/test_契約管理_随時対応（任意保険・自賠責保険更新）.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27150" windowHeight="13650" tabRatio="850" activeTab="4"/>
+    <workbookView windowWidth="27150" windowHeight="13650" tabRatio="850" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="IN_DB_001" sheetId="20" r:id="rId1"/>
@@ -3507,7 +3507,7 @@
     <t>SHOT</t>
   </si>
   <si>
-    <t>003-001-120任意保険・自賠責保険更新画面を反映</t>
+    <t>003-001-112任意保険・自賠責保険更新画面を反映</t>
   </si>
   <si>
     <t>/html/body/main/div/div[1]/div[2]/div/ul/li[7]/div[3]/div[1]/form/div[2]/div/label</t>
@@ -3516,7 +3516,7 @@
     <t>/html/body/main/div/div[1]/div[2]/div/ul/li[7]/div[3]/div[1]/form/div[3]/div/div/input</t>
   </si>
   <si>
-    <t>003-001-121保険の種類を選べられること</t>
+    <t>003-001-113保険の種類を選べられること</t>
   </si>
   <si>
     <t>/html/body/main/div/div[1]/div[2]/div/ul/li[7]/div[3]/div[1]/form/div[3]/div/div/ul/li[2]</t>
@@ -3534,7 +3534,7 @@
     <t>2018-06-13</t>
   </si>
   <si>
-    <t>003-001-122新しい保険証券の提出期限を選べられること</t>
+    <t>003-001-114新しい保険証券の提出期限を選べられること</t>
   </si>
   <si>
     <t>/html/body/main/div/div[1]/div[2]/div/ul/li[7]/div[3]/div[2]/a[1]</t>
@@ -3864,7 +3864,7 @@
     <t>ALERT</t>
   </si>
   <si>
-    <t>003-001-123新しい保険証券の提出期限を反映されること</t>
+    <t>003-001-115新しい保険証券の提出期限を反映されること</t>
   </si>
   <si>
     <t>/html/body/main/div/div[1]/div[2]/div/ul/li[2]/div[1]</t>
@@ -3876,13 +3876,13 @@
     <t>HANDLE</t>
   </si>
   <si>
-    <t>003-001-124任意保険証･自賠責保険証 ご提出のお願いのPDF</t>
+    <t>003-001-116任意保険証･自賠責保険証 ご提出のお願いのPDF</t>
   </si>
   <si>
     <t>/html/body/main/div/div[1]/div[2]/div/ul/li[2]/div[2]/div[2]/div/a[2]/i</t>
   </si>
   <si>
-    <t>003-001-124任意保険証･自賠責保険証の提出依頼送付</t>
+    <t>003-001-116任意保険証･自賠責保険証の提出依頼送付</t>
   </si>
   <si>
     <t>mail_to</t>
@@ -3903,13 +3903,13 @@
     <t>/data/up_file_tmp/自賠責保険証の写し.docx</t>
   </si>
   <si>
-    <t>003-001-125自賠責保険証の写し</t>
+    <t>003-001-117自賠責保険証の写し</t>
   </si>
   <si>
     <t>id_insurance_mandatory_expire_date</t>
   </si>
   <si>
-    <t>003-001-126自賠責保険の有効期限</t>
+    <t>003-001-118自賠責保険の有効期限</t>
   </si>
   <si>
     <t>/html/body/main/div/div[1]/div[2]/div/ul/li[3]/div[2]/div[1]/div/form/div[2]/button</t>
@@ -3918,13 +3918,13 @@
     <t>/html/body/main/div/div[1]/div[2]/div/ul/li[3]/div[2]/div[2]/div/a[3]/i</t>
   </si>
   <si>
-    <t xml:space="preserve">003-001-126自賠責保険の情報更新 </t>
+    <t xml:space="preserve">003-001-118自賠責保険の情報更新 </t>
   </si>
   <si>
     <t>/html/body/main/div/div[1]/div[2]/div/div[4]/div/a[2]</t>
   </si>
   <si>
-    <t>003-001-126自賠責保険対応完了</t>
+    <t>003-001-118自賠責保険対応完了</t>
   </si>
   <si>
     <t>任意保険</t>
@@ -3948,16 +3948,16 @@
     <t>1000.00</t>
   </si>
   <si>
-    <t>003-001-128任意保険の対物限度額を変更</t>
+    <t>003-001-120任意保険の対物限度額を変更</t>
   </si>
   <si>
     <t>id_insurance_voluntary_expire_date</t>
   </si>
   <si>
-    <t>003-001-127進捗①②と003-001-123から127までと同じ</t>
-  </si>
-  <si>
-    <t>003-001-127任意保険対応完了</t>
+    <t>003-001-119進捗①②と003-001-123から127までと同じ</t>
+  </si>
+  <si>
+    <t>003-001-119任意保険対応完了</t>
   </si>
   <si>
     <t>1845</t>
@@ -4917,52 +4917,52 @@
     <t>実行日時</t>
   </si>
   <si>
+    <t>003-001-112</t>
+  </si>
+  <si>
+    <t>IN_DB_001</t>
+  </si>
+  <si>
+    <t>IN_FORM_001</t>
+  </si>
+  <si>
+    <t>EXPECT_001</t>
+  </si>
+  <si>
+    <t>RESULT_001</t>
+  </si>
+  <si>
+    <t>003-001-113</t>
+  </si>
+  <si>
+    <t>003-001-114</t>
+  </si>
+  <si>
+    <t>003-001-115</t>
+  </si>
+  <si>
+    <t>IN_FORM_002</t>
+  </si>
+  <si>
+    <t>EXPECT_002</t>
+  </si>
+  <si>
+    <t>RESULT_002</t>
+  </si>
+  <si>
+    <t>003-001-116</t>
+  </si>
+  <si>
+    <t>003-001-117</t>
+  </si>
+  <si>
+    <t>003-001-118</t>
+  </si>
+  <si>
+    <t>003-001-119</t>
+  </si>
+  <si>
     <t>003-001-120</t>
-  </si>
-  <si>
-    <t>IN_DB_001</t>
-  </si>
-  <si>
-    <t>IN_FORM_001</t>
-  </si>
-  <si>
-    <t>EXPECT_001</t>
-  </si>
-  <si>
-    <t>RESULT_001</t>
-  </si>
-  <si>
-    <t>003-001-121</t>
-  </si>
-  <si>
-    <t>003-001-122</t>
-  </si>
-  <si>
-    <t>003-001-123</t>
-  </si>
-  <si>
-    <t>003-001-124</t>
-  </si>
-  <si>
-    <t>IN_FORM_002</t>
-  </si>
-  <si>
-    <t>EXPECT_002</t>
-  </si>
-  <si>
-    <t>RESULT_002</t>
-  </si>
-  <si>
-    <t>003-001-125</t>
-  </si>
-  <si>
-    <t>003-001-126</t>
-  </si>
-  <si>
-    <t>003-001-127</t>
-  </si>
-  <si>
-    <t>003-001-128</t>
   </si>
 </sst>
 </file>
@@ -4970,11 +4970,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
   <fonts count="41">
     <font>
@@ -5124,102 +5124,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Meiryo UI"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5241,6 +5146,80 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Meiryo UI"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -5257,9 +5236,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5364,13 +5364,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5382,25 +5376,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5418,7 +5406,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5430,13 +5454,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5448,85 +5520,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5590,6 +5590,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -5601,6 +5610,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -5635,33 +5653,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -5673,6 +5664,15 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -5693,10 +5693,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="26" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -5705,16 +5705,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -5726,113 +5726,113 @@
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="27" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="42" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="27" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="40" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -54273,7 +54273,7 @@
   <dimension ref="A1:G47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" outlineLevelCol="6"/>
@@ -56127,8 +56127,8 @@
   <sheetPr/>
   <dimension ref="A1:G100"/>
   <sheetViews>
-    <sheetView topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="F100" sqref="F100"/>
+    <sheetView topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="E76" sqref="E76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -56921,7 +56921,7 @@
   <sheetPr/>
   <dimension ref="A1:IE44"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="O48" sqref="O48"/>
     </sheetView>
   </sheetViews>
@@ -59768,8 +59768,8 @@
   <sheetPr/>
   <dimension ref="B4:H28"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I18" sqref="G15 I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -59834,22 +59834,22 @@
         <v>1346</v>
       </c>
     </row>
-    <row r="8" spans="2:2">
+    <row r="8" spans="2:6">
       <c r="B8" s="8" t="s">
         <v>1347</v>
       </c>
+      <c r="D8" s="1" t="s">
+        <v>1348</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>1349</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>1350</v>
+      </c>
     </row>
-    <row r="9" spans="2:6">
+    <row r="9" spans="2:2">
       <c r="B9" s="8" t="s">
-        <v>1348</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>1349</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>1350</v>
-      </c>
-      <c r="F9" s="1" t="s">
         <v>1351</v>
       </c>
     </row>

--- a/test_物件管理/test_契約管理_随時対応（任意保険・自賠責保険更新）.xlsx
+++ b/test_物件管理/test_契約管理_随時対応（任意保険・自賠責保険更新）.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27150" windowHeight="13650" tabRatio="850" activeTab="5"/>
+    <workbookView windowWidth="27150" windowHeight="13650" tabRatio="850" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="IN_DB_001" sheetId="20" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1356">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1358">
   <si>
     <t>SQL</t>
   </si>
@@ -3958,6 +3958,12 @@
   </si>
   <si>
     <t>003-001-119任意保険対応完了</t>
+  </si>
+  <si>
+    <t>for 破棄</t>
+  </si>
+  <si>
+    <t>/html/body/main/div/div[1]/div[2]/div/div[4]/div/a[1]</t>
   </si>
   <si>
     <t>1845</t>
@@ -4970,11 +4976,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="41">
     <font>
@@ -5123,45 +5129,16 @@
       <charset val="0"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5175,9 +5152,52 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5213,41 +5233,18 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -5258,8 +5255,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5364,13 +5370,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5388,12 +5424,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -5406,7 +5436,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5424,7 +5466,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5442,61 +5490,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5514,12 +5520,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -5527,6 +5527,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5590,11 +5596,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -5617,8 +5629,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -5638,6 +5650,24 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -5649,30 +5679,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -5693,10 +5699,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -5705,16 +5711,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -5723,116 +5729,116 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="27" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="28" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="8" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="27" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -56125,13 +56131,13 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G100"/>
+  <dimension ref="A1:J127"/>
   <sheetViews>
-    <sheetView topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="E76" sqref="E76"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="J90" sqref="J90"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="17.125" customWidth="1"/>
     <col min="3" max="3" width="18.875" style="24" customWidth="1"/>
@@ -56701,8 +56707,12 @@
       <c r="C74" s="26"/>
     </row>
     <row r="75" s="9" customFormat="1" ht="12" customHeight="1" spans="1:3">
-      <c r="A75"/>
-      <c r="B75" s="28"/>
+      <c r="A75" s="25" t="s">
+        <v>1275</v>
+      </c>
+      <c r="B75" s="9">
+        <v>-1</v>
+      </c>
       <c r="C75" s="26"/>
     </row>
     <row r="76" s="9" customFormat="1" ht="12" customHeight="1" spans="1:3">
@@ -56710,139 +56720,139 @@
         <v>1275</v>
       </c>
       <c r="B76" s="9">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C76" s="26"/>
     </row>
     <row r="77" s="9" customFormat="1" ht="12" customHeight="1" spans="1:3">
       <c r="A77" s="25" t="s">
-        <v>1275</v>
-      </c>
-      <c r="B77" s="9">
-        <v>0</v>
+        <v>1144</v>
+      </c>
+      <c r="B77" s="9" t="s">
+        <v>1277</v>
       </c>
       <c r="C77" s="26"/>
     </row>
     <row r="78" s="9" customFormat="1" ht="12" customHeight="1" spans="1:3">
       <c r="A78" s="25" t="s">
-        <v>1144</v>
+        <v>1159</v>
       </c>
       <c r="B78" s="9" t="s">
-        <v>1277</v>
-      </c>
-      <c r="C78" s="26"/>
+        <v>1279</v>
+      </c>
+      <c r="C78" s="29" t="s">
+        <v>1280</v>
+      </c>
     </row>
     <row r="79" s="9" customFormat="1" ht="12" customHeight="1" spans="1:3">
       <c r="A79" s="25" t="s">
-        <v>1159</v>
+        <v>1144</v>
       </c>
       <c r="B79" s="9" t="s">
-        <v>1279</v>
-      </c>
-      <c r="C79" s="29" t="s">
-        <v>1280</v>
-      </c>
+        <v>1281</v>
+      </c>
+      <c r="C79" s="26"/>
     </row>
     <row r="80" s="9" customFormat="1" ht="12" customHeight="1" spans="1:3">
-      <c r="A80" s="25" t="s">
-        <v>1144</v>
-      </c>
-      <c r="B80" s="9" t="s">
-        <v>1281</v>
-      </c>
+      <c r="A80"/>
+      <c r="B80" s="28"/>
       <c r="C80" s="26"/>
     </row>
     <row r="81" s="9" customFormat="1" ht="12" customHeight="1" spans="1:3">
       <c r="A81"/>
-      <c r="B81" s="28"/>
       <c r="C81" s="26"/>
     </row>
     <row r="82" s="9" customFormat="1" ht="12" customHeight="1" spans="1:3">
-      <c r="A82"/>
+      <c r="A82" s="25" t="s">
+        <v>1144</v>
+      </c>
+      <c r="B82" s="9" t="s">
+        <v>1282</v>
+      </c>
       <c r="C82" s="26"/>
     </row>
     <row r="83" s="9" customFormat="1" ht="12" customHeight="1" spans="1:3">
       <c r="A83" s="25" t="s">
-        <v>1144</v>
+        <v>1159</v>
       </c>
       <c r="B83" s="9" t="s">
-        <v>1282</v>
-      </c>
-      <c r="C83" s="26"/>
+        <v>1295</v>
+      </c>
+      <c r="C83" s="26" t="s">
+        <v>1296</v>
+      </c>
     </row>
     <row r="84" s="9" customFormat="1" ht="12" customHeight="1" spans="1:3">
-      <c r="A84" s="25" t="s">
-        <v>1159</v>
-      </c>
-      <c r="B84" s="9" t="s">
-        <v>1295</v>
-      </c>
-      <c r="C84" s="26" t="s">
-        <v>1296</v>
-      </c>
+      <c r="A84" s="27"/>
+      <c r="B84" s="27"/>
+      <c r="C84" s="26"/>
     </row>
     <row r="85" s="9" customFormat="1" ht="12" customHeight="1" spans="1:3">
-      <c r="A85" s="27"/>
-      <c r="B85" s="27"/>
+      <c r="A85" s="25" t="s">
+        <v>1144</v>
+      </c>
+      <c r="B85" s="27" t="s">
+        <v>1297</v>
+      </c>
       <c r="C85" s="26"/>
     </row>
     <row r="86" s="9" customFormat="1" ht="12" customHeight="1" spans="1:3">
       <c r="A86" s="25" t="s">
-        <v>1144</v>
+        <v>1159</v>
       </c>
       <c r="B86" s="27" t="s">
-        <v>1297</v>
-      </c>
-      <c r="C86" s="26"/>
+        <v>1298</v>
+      </c>
+      <c r="C86" s="26" t="s">
+        <v>1299</v>
+      </c>
     </row>
     <row r="87" s="9" customFormat="1" ht="12" customHeight="1" spans="1:3">
       <c r="A87" s="25" t="s">
-        <v>1159</v>
+        <v>1152</v>
       </c>
       <c r="B87" s="27" t="s">
-        <v>1298</v>
-      </c>
-      <c r="C87" s="26" t="s">
-        <v>1299</v>
-      </c>
+        <v>1300</v>
+      </c>
+      <c r="C87" s="26"/>
     </row>
     <row r="88" s="9" customFormat="1" ht="12" customHeight="1" spans="1:3">
       <c r="A88" s="25" t="s">
-        <v>1152</v>
-      </c>
-      <c r="B88" s="27" t="s">
-        <v>1300</v>
-      </c>
-      <c r="C88" s="26"/>
+        <v>1159</v>
+      </c>
+      <c r="B88" s="9" t="s">
+        <v>1301</v>
+      </c>
+      <c r="C88" s="26" t="s">
+        <v>1161</v>
+      </c>
     </row>
     <row r="89" s="9" customFormat="1" ht="12" customHeight="1" spans="1:3">
-      <c r="A89" s="25" t="s">
-        <v>1159</v>
-      </c>
-      <c r="B89" s="9" t="s">
-        <v>1301</v>
-      </c>
-      <c r="C89" s="26" t="s">
-        <v>1161</v>
-      </c>
+      <c r="A89"/>
+      <c r="B89" s="27"/>
+      <c r="C89" s="26"/>
     </row>
     <row r="90" s="9" customFormat="1" ht="12" customHeight="1" spans="1:3">
-      <c r="A90"/>
-      <c r="B90" s="27"/>
+      <c r="A90" s="25" t="s">
+        <v>1144</v>
+      </c>
+      <c r="B90" s="27" t="s">
+        <v>1288</v>
+      </c>
       <c r="C90" s="26"/>
     </row>
     <row r="91" s="9" customFormat="1" ht="12" customHeight="1" spans="1:3">
-      <c r="A91" s="25" t="s">
-        <v>1144</v>
-      </c>
-      <c r="B91" s="27" t="s">
-        <v>1288</v>
-      </c>
+      <c r="A91"/>
+      <c r="B91" s="27"/>
       <c r="C91" s="26"/>
     </row>
     <row r="92" s="9" customFormat="1" ht="12" customHeight="1" spans="1:3">
-      <c r="A92"/>
-      <c r="B92" s="27"/>
+      <c r="A92" s="25" t="s">
+        <v>1144</v>
+      </c>
+      <c r="B92" s="9" t="s">
+        <v>1282</v>
+      </c>
       <c r="C92" s="26"/>
     </row>
     <row r="93" s="9" customFormat="1" ht="12" customHeight="1" spans="1:3">
@@ -56850,65 +56860,260 @@
         <v>1144</v>
       </c>
       <c r="B93" s="9" t="s">
-        <v>1282</v>
+        <v>1289</v>
       </c>
       <c r="C93" s="26"/>
     </row>
     <row r="94" s="9" customFormat="1" ht="12" customHeight="1" spans="1:3">
       <c r="A94" s="25" t="s">
-        <v>1144</v>
-      </c>
-      <c r="B94" s="9" t="s">
-        <v>1289</v>
+        <v>1271</v>
       </c>
       <c r="C94" s="26"/>
     </row>
     <row r="95" s="9" customFormat="1" ht="12" customHeight="1" spans="1:3">
       <c r="A95" s="25" t="s">
-        <v>1271</v>
+        <v>1152</v>
+      </c>
+      <c r="B95" s="27" t="s">
+        <v>1302</v>
       </c>
       <c r="C95" s="26"/>
     </row>
     <row r="96" s="9" customFormat="1" ht="12" customHeight="1" spans="1:3">
       <c r="A96" s="25" t="s">
-        <v>1152</v>
-      </c>
-      <c r="B96" s="27" t="s">
-        <v>1302</v>
+        <v>1144</v>
+      </c>
+      <c r="B96" s="9" t="s">
+        <v>1291</v>
       </c>
       <c r="C96" s="26"/>
     </row>
     <row r="97" s="9" customFormat="1" ht="12" customHeight="1" spans="1:3">
       <c r="A97" s="25" t="s">
-        <v>1144</v>
-      </c>
-      <c r="B97" s="9" t="s">
-        <v>1291</v>
+        <v>1271</v>
       </c>
       <c r="C97" s="26"/>
     </row>
     <row r="98" s="9" customFormat="1" ht="12" customHeight="1" spans="1:3">
       <c r="A98" s="25" t="s">
-        <v>1271</v>
+        <v>1152</v>
+      </c>
+      <c r="B98" s="27" t="s">
+        <v>1303</v>
       </c>
       <c r="C98" s="26"/>
     </row>
-    <row r="99" s="9" customFormat="1" ht="12" customHeight="1" spans="1:3">
-      <c r="A99" s="25" t="s">
-        <v>1152</v>
-      </c>
-      <c r="B99" s="27" t="s">
-        <v>1303</v>
-      </c>
+    <row r="99" spans="2:3">
+      <c r="B99" s="9"/>
       <c r="C99" s="26"/>
     </row>
-    <row r="100" spans="2:3">
-      <c r="B100" s="9"/>
-      <c r="C100" s="26"/>
+    <row r="102" s="9" customFormat="1" ht="12" customHeight="1" spans="1:3">
+      <c r="A102"/>
+      <c r="B102"/>
+      <c r="C102"/>
+    </row>
+    <row r="103" s="9" customFormat="1" ht="14.25" spans="1:3">
+      <c r="A103" s="25" t="s">
+        <v>1142</v>
+      </c>
+      <c r="B103" s="9" t="s">
+        <v>1143</v>
+      </c>
+      <c r="C103" s="26"/>
+    </row>
+    <row r="104" s="9" customFormat="1" ht="12" customHeight="1" spans="3:10">
+      <c r="C104" s="26"/>
+      <c r="J104" s="9" t="s">
+        <v>1304</v>
+      </c>
+    </row>
+    <row r="105" s="9" customFormat="1" ht="14.25" spans="1:3">
+      <c r="A105" s="25" t="s">
+        <v>1144</v>
+      </c>
+      <c r="B105" s="9" t="s">
+        <v>1145</v>
+      </c>
+      <c r="C105" s="26"/>
+    </row>
+    <row r="106" s="9" customFormat="1" ht="14.25" spans="1:3">
+      <c r="A106" s="25" t="s">
+        <v>1144</v>
+      </c>
+      <c r="B106" s="9" t="s">
+        <v>1146</v>
+      </c>
+      <c r="C106" s="26"/>
+    </row>
+    <row r="107" customFormat="1" spans="1:4">
+      <c r="A107" s="9"/>
+      <c r="B107" s="9"/>
+      <c r="C107" s="26"/>
+      <c r="D107" s="9"/>
+    </row>
+    <row r="108" customFormat="1" ht="14.25" spans="1:7">
+      <c r="A108" s="25" t="s">
+        <v>1144</v>
+      </c>
+      <c r="B108" s="9" t="s">
+        <v>1147</v>
+      </c>
+      <c r="C108" s="26"/>
+      <c r="D108" s="9"/>
+      <c r="G108" t="s">
+        <v>1149</v>
+      </c>
+    </row>
+    <row r="109" customFormat="1" ht="14.25" spans="1:4">
+      <c r="A109" s="25" t="s">
+        <v>1144</v>
+      </c>
+      <c r="B109" s="9" t="s">
+        <v>1148</v>
+      </c>
+      <c r="C109" s="26"/>
+      <c r="D109" s="9"/>
+    </row>
+    <row r="110" customFormat="1" spans="1:4">
+      <c r="A110" s="9"/>
+      <c r="B110" s="9"/>
+      <c r="C110" s="26"/>
+      <c r="D110" s="9"/>
+    </row>
+    <row r="111" customFormat="1" ht="14.25" spans="1:4">
+      <c r="A111" s="25" t="s">
+        <v>1144</v>
+      </c>
+      <c r="B111" s="9" t="s">
+        <v>1150</v>
+      </c>
+      <c r="C111" s="26"/>
+      <c r="D111" s="9"/>
+    </row>
+    <row r="112" customFormat="1" ht="14.25" spans="1:4">
+      <c r="A112" s="25" t="s">
+        <v>1144</v>
+      </c>
+      <c r="B112" s="9" t="s">
+        <v>1151</v>
+      </c>
+      <c r="C112" s="26"/>
+      <c r="D112" s="9"/>
+    </row>
+    <row r="113" customFormat="1" spans="2:4">
+      <c r="B113" s="27"/>
+      <c r="C113" s="26"/>
+      <c r="D113" s="9"/>
+    </row>
+    <row r="114" customFormat="1" ht="14.25" spans="1:4">
+      <c r="A114" s="25" t="s">
+        <v>1144</v>
+      </c>
+      <c r="B114" s="9" t="s">
+        <v>1154</v>
+      </c>
+      <c r="C114" s="26"/>
+      <c r="D114" s="9"/>
+    </row>
+    <row r="115" customFormat="1" ht="14.25" spans="1:4">
+      <c r="A115" s="25" t="s">
+        <v>1144</v>
+      </c>
+      <c r="B115" s="9" t="s">
+        <v>1155</v>
+      </c>
+      <c r="C115" s="26"/>
+      <c r="D115" s="9"/>
+    </row>
+    <row r="116" customFormat="1" spans="2:7">
+      <c r="B116" s="27"/>
+      <c r="C116" s="26"/>
+      <c r="D116" s="9"/>
+      <c r="G116" t="s">
+        <v>1293</v>
+      </c>
+    </row>
+    <row r="117" customFormat="1" ht="14.25" spans="1:4">
+      <c r="A117" s="25" t="s">
+        <v>1144</v>
+      </c>
+      <c r="B117" s="9" t="s">
+        <v>1294</v>
+      </c>
+      <c r="C117" s="26"/>
+      <c r="D117" s="9"/>
+    </row>
+    <row r="118" customFormat="1" spans="3:4">
+      <c r="C118" s="26"/>
+      <c r="D118" s="9"/>
+    </row>
+    <row r="119" customFormat="1" ht="14.25" spans="1:4">
+      <c r="A119" s="25" t="s">
+        <v>1159</v>
+      </c>
+      <c r="B119" s="9" t="s">
+        <v>1160</v>
+      </c>
+      <c r="C119" s="26" t="s">
+        <v>1161</v>
+      </c>
+      <c r="D119" s="9"/>
+    </row>
+    <row r="120" customFormat="1" spans="2:4">
+      <c r="B120" s="27"/>
+      <c r="C120" s="26"/>
+      <c r="D120" s="9"/>
+    </row>
+    <row r="121" customFormat="1" ht="14.25" spans="1:3">
+      <c r="A121" s="25" t="s">
+        <v>1144</v>
+      </c>
+      <c r="B121" s="9" t="s">
+        <v>1163</v>
+      </c>
+      <c r="C121" s="26"/>
+    </row>
+    <row r="122" customFormat="1" spans="1:3">
+      <c r="A122" s="9"/>
+      <c r="C122" s="9"/>
+    </row>
+    <row r="123" s="9" customFormat="1" ht="12" customHeight="1" spans="1:2">
+      <c r="A123"/>
+      <c r="B123"/>
+    </row>
+    <row r="124" ht="14.25" spans="1:2">
+      <c r="A124" s="25" t="s">
+        <v>1142</v>
+      </c>
+      <c r="B124" s="9" t="s">
+        <v>1267</v>
+      </c>
+    </row>
+    <row r="125" ht="14.25" spans="1:2">
+      <c r="A125" s="25" t="s">
+        <v>1144</v>
+      </c>
+      <c r="B125" s="9" t="s">
+        <v>1268</v>
+      </c>
+    </row>
+    <row r="126" ht="14.25" spans="1:2">
+      <c r="A126" s="25" t="s">
+        <v>1144</v>
+      </c>
+      <c r="B126" s="9" t="s">
+        <v>1305</v>
+      </c>
+    </row>
+    <row r="127" ht="14.25" spans="1:2">
+      <c r="A127" s="25" t="s">
+        <v>1271</v>
+      </c>
+      <c r="B127" s="9"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C79" r:id="rId1" display="mht@shequchina.cn"/>
+    <hyperlink ref="C78" r:id="rId1" display="mht@shequchina.cn"/>
     <hyperlink ref="C18" r:id="rId1" display="mht@shequchina.cn"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
@@ -56922,7 +57127,7 @@
   <dimension ref="A1:IE44"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O48" sqref="O48"/>
+      <selection activeCell="G48" sqref="G48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -57193,7 +57398,7 @@
     </row>
     <row r="9" customFormat="1" spans="2:14">
       <c r="B9" s="17" t="s">
-        <v>1304</v>
+        <v>1306</v>
       </c>
       <c r="C9" s="17">
         <v>43262.4198148148</v>
@@ -57234,7 +57439,7 @@
     </row>
     <row r="10" customFormat="1" spans="2:14">
       <c r="B10" s="17" t="s">
-        <v>1305</v>
+        <v>1307</v>
       </c>
       <c r="C10" s="17">
         <v>43262.4198148148</v>
@@ -57275,7 +57480,7 @@
     </row>
     <row r="11" customFormat="1" spans="2:14">
       <c r="B11" s="17" t="s">
-        <v>1306</v>
+        <v>1308</v>
       </c>
       <c r="C11" s="17">
         <v>43262.4198148148</v>
@@ -58913,7 +59118,7 @@
     <row r="29" spans="1:239">
       <c r="A29" s="11"/>
       <c r="B29" s="18" t="s">
-        <v>1307</v>
+        <v>1309</v>
       </c>
       <c r="C29" s="17">
         <v>43262.4198148148</v>
@@ -59346,7 +59551,7 @@
         <v>59</v>
       </c>
       <c r="B32" s="13" t="s">
-        <v>1308</v>
+        <v>1310</v>
       </c>
       <c r="C32" s="19"/>
       <c r="D32" s="19"/>
@@ -59354,7 +59559,7 @@
     <row r="33" spans="1:4">
       <c r="A33" s="14"/>
       <c r="B33" s="10" t="s">
-        <v>1309</v>
+        <v>1311</v>
       </c>
       <c r="C33" s="19"/>
       <c r="D33" s="19"/>
@@ -59364,31 +59569,31 @@
         <v>63</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>1310</v>
+        <v>1312</v>
       </c>
       <c r="D34" s="16" t="s">
-        <v>1311</v>
+        <v>1313</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>1312</v>
+        <v>1314</v>
       </c>
       <c r="F34" s="16" t="s">
-        <v>1313</v>
+        <v>1315</v>
       </c>
       <c r="G34" s="16" t="s">
-        <v>1314</v>
+        <v>1316</v>
       </c>
       <c r="H34" s="16" t="s">
-        <v>1315</v>
+        <v>1317</v>
       </c>
       <c r="I34" s="16" t="s">
-        <v>1316</v>
+        <v>1318</v>
       </c>
       <c r="J34" s="16" t="s">
-        <v>1317</v>
+        <v>1319</v>
       </c>
       <c r="K34" s="16" t="s">
-        <v>1318</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="35" spans="2:11">
@@ -59399,7 +59604,7 @@
         <v>43158.4153009259</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>1319</v>
+        <v>1321</v>
       </c>
       <c r="E35" s="17" t="s">
         <v>509</v>
@@ -59411,10 +59616,10 @@
         <v>84</v>
       </c>
       <c r="H35" s="17" t="s">
-        <v>1320</v>
+        <v>1322</v>
       </c>
       <c r="I35" s="17" t="s">
-        <v>1321</v>
+        <v>1323</v>
       </c>
       <c r="J35" s="18" t="s">
         <v>84</v>
@@ -59431,7 +59636,7 @@
         <v>43159.3828819444</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>1319</v>
+        <v>1321</v>
       </c>
       <c r="E36" s="17" t="s">
         <v>509</v>
@@ -59443,10 +59648,10 @@
         <v>84</v>
       </c>
       <c r="H36" s="17" t="s">
-        <v>1322</v>
+        <v>1324</v>
       </c>
       <c r="I36" s="17" t="s">
-        <v>1321</v>
+        <v>1323</v>
       </c>
       <c r="J36" s="18" t="s">
         <v>84</v>
@@ -59470,7 +59675,7 @@
         <v>59</v>
       </c>
       <c r="B40" s="13" t="s">
-        <v>1323</v>
+        <v>1325</v>
       </c>
       <c r="C40" s="19"/>
       <c r="D40" s="19"/>
@@ -59478,7 +59683,7 @@
     <row r="41" spans="1:4">
       <c r="A41" s="14"/>
       <c r="B41" s="10" t="s">
-        <v>1324</v>
+        <v>1326</v>
       </c>
       <c r="C41" s="19"/>
       <c r="D41" s="19"/>
@@ -59500,10 +59705,10 @@
         <v>67</v>
       </c>
       <c r="G42" s="16" t="s">
-        <v>1325</v>
+        <v>1327</v>
       </c>
       <c r="H42" s="16" t="s">
-        <v>1326</v>
+        <v>1328</v>
       </c>
       <c r="I42" s="16" t="s">
         <v>250</v>
@@ -59512,18 +59717,18 @@
         <v>1187</v>
       </c>
       <c r="K42" s="16" t="s">
-        <v>1327</v>
+        <v>1329</v>
       </c>
       <c r="L42" s="16" t="s">
         <v>1186</v>
       </c>
       <c r="M42" s="16" t="s">
-        <v>1328</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="43" spans="2:13">
       <c r="B43" s="18" t="s">
-        <v>1329</v>
+        <v>1331</v>
       </c>
       <c r="C43" s="17">
         <v>43263.2431134259</v>
@@ -59541,10 +59746,10 @@
         <v>43263.2431134259</v>
       </c>
       <c r="H43" s="18" t="s">
-        <v>1330</v>
+        <v>1332</v>
       </c>
       <c r="I43" s="18" t="s">
-        <v>1331</v>
+        <v>1333</v>
       </c>
       <c r="J43" s="18" t="s">
         <v>647</v>
@@ -59553,7 +59758,7 @@
         <v>81</v>
       </c>
       <c r="L43" s="18" t="s">
-        <v>1332</v>
+        <v>1334</v>
       </c>
       <c r="M43" s="18" t="s">
         <v>1127</v>
@@ -59561,7 +59766,7 @@
     </row>
     <row r="44" spans="2:13">
       <c r="B44" s="18" t="s">
-        <v>1333</v>
+        <v>1335</v>
       </c>
       <c r="C44" s="17">
         <v>43263.2436574074</v>
@@ -59579,10 +59784,10 @@
         <v>43263.2436574074</v>
       </c>
       <c r="H44" s="18" t="s">
-        <v>1334</v>
+        <v>1336</v>
       </c>
       <c r="I44" s="18" t="s">
-        <v>1331</v>
+        <v>1333</v>
       </c>
       <c r="J44" s="18" t="s">
         <v>647</v>
@@ -59591,7 +59796,7 @@
         <v>81</v>
       </c>
       <c r="L44" s="18" t="s">
-        <v>1332</v>
+        <v>1334</v>
       </c>
       <c r="M44" s="18" t="s">
         <v>1127</v>
@@ -59768,8 +59973,8 @@
   <sheetPr/>
   <dimension ref="B4:H28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I18" sqref="G15 I18"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -59786,91 +59991,91 @@
   <sheetData>
     <row r="4" spans="2:8">
       <c r="B4" s="3" t="s">
-        <v>1335</v>
+        <v>1337</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>1336</v>
+        <v>1338</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>1336</v>
+        <v>1338</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>1337</v>
+        <v>1339</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>1338</v>
+        <v>1340</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>1339</v>
+        <v>1341</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>1338</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="5" spans="2:6">
       <c r="B5" s="8" t="s">
-        <v>1340</v>
+        <v>1342</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>1341</v>
+        <v>1343</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>1342</v>
+        <v>1344</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>1343</v>
+        <v>1345</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>1344</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="6" spans="2:2">
       <c r="B6" s="8" t="s">
-        <v>1345</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="7" spans="2:2">
       <c r="B7" s="8" t="s">
-        <v>1346</v>
+        <v>1348</v>
       </c>
     </row>
     <row r="8" spans="2:6">
       <c r="B8" s="8" t="s">
-        <v>1347</v>
+        <v>1349</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>1348</v>
+        <v>1350</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>1349</v>
+        <v>1351</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>1350</v>
+        <v>1352</v>
       </c>
     </row>
     <row r="9" spans="2:2">
       <c r="B9" s="8" t="s">
-        <v>1351</v>
+        <v>1353</v>
       </c>
     </row>
     <row r="10" spans="2:2">
       <c r="B10" s="8" t="s">
-        <v>1352</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="11" spans="2:2">
       <c r="B11" s="8" t="s">
-        <v>1353</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="12" spans="2:2">
       <c r="B12" s="8" t="s">
-        <v>1354</v>
+        <v>1356</v>
       </c>
     </row>
     <row r="13" spans="2:2">
       <c r="B13" s="8" t="s">
-        <v>1355</v>
+        <v>1357</v>
       </c>
     </row>
     <row r="14" spans="2:2">
